--- a/biology/Histoire de la zoologie et de la botanique/Hendrik_Cornelis_Siebers/Hendrik_Cornelis_Siebers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hendrik_Cornelis_Siebers/Hendrik_Cornelis_Siebers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hendrik Cornelis Siebers, né le 6 janvier 1890 à Surabaya (Java) et mort en octobre 1949, est un ornithologue néerlandais qui a travaillé au muséum d'histoire naturelle de l'université d'Amsterdam.
 Il a exploré à partir de 1925 la partie orientale de l'Indonésie, notamment l'île de Buru. Il a décrit et nommé trois nouvelles espèces d'oiseaux : le Lori de Buru (Charmosyna toxopei), le Gobemouche de Hartert (Ficedula harterti) et le Gobemouche de Sumba (Muscicapa segregata).
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(fi) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en finnois intitulé « Hendrik Cornelis Siebers » (voir la liste des auteurs).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’Indonésie   Portail de l'ornithologie   Portail des Pays-Bas                  </t>
